--- a/doc/costoCartonal2025.xlsx
+++ b/doc/costoCartonal2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\cartonal\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69AB2C9-4931-4E16-B364-A2AEBEEC25C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6BA973-6F23-438B-9C7D-BE760FFC5C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13485" yWindow="405" windowWidth="15315" windowHeight="14775" xr2:uid="{B49FAA23-0851-429D-87CD-2CB88D6C5D7D}"/>
+    <workbookView xWindow="1980" yWindow="1365" windowWidth="15315" windowHeight="14775" xr2:uid="{B49FAA23-0851-429D-87CD-2CB88D6C5D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>

--- a/doc/costoCartonal2025.xlsx
+++ b/doc/costoCartonal2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\cartonal\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6BA973-6F23-438B-9C7D-BE760FFC5C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E2CDEE-E3E5-49FE-8C5B-9138CE4C46AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1365" windowWidth="15315" windowHeight="14775" xr2:uid="{B49FAA23-0851-429D-87CD-2CB88D6C5D7D}"/>
+    <workbookView xWindow="-135" yWindow="270" windowWidth="15315" windowHeight="14775" xr2:uid="{B49FAA23-0851-429D-87CD-2CB88D6C5D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>

--- a/doc/costoCartonal2025.xlsx
+++ b/doc/costoCartonal2025.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\cartonal\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E2CDEE-E3E5-49FE-8C5B-9138CE4C46AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D6B8A8-3A73-4EEE-9037-E2CAE23A324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="270" windowWidth="15315" windowHeight="14775" xr2:uid="{B49FAA23-0851-429D-87CD-2CB88D6C5D7D}"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="20640" windowHeight="14775" xr2:uid="{B49FAA23-0851-429D-87CD-2CB88D6C5D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$F$1:$I$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -781,7 +784,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
